--- a/REGULAR/BAYHON, VIOLETA.xlsx
+++ b/REGULAR/BAYHON, VIOLETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA01458-5E43-4F6F-AB14-4C9291172471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6256F3-FDD5-47D1-9DAA-180238D0AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>1/30,31/2023</t>
+  </si>
+  <si>
+    <t>ADMIN ADIE I</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1315,12 +1318,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A84" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,7 +1366,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>86</v>
+      </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -1481,7 +1486,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.607</v>
+        <v>109.857</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1491,7 +1496,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.5</v>
+        <v>56.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3226,27 +3231,35 @@
       <c r="A91" s="40">
         <v>44986</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="B91" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45008</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>1</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -3256,11 +3269,13 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>45014</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3278,7 +3293,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3296,7 +3311,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3314,7 +3329,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3332,7 +3347,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3350,7 +3365,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3368,7 +3383,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3386,7 +3401,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3404,7 +3419,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3422,7 +3437,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3440,7 +3455,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3458,7 +3473,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3476,7 +3491,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3494,7 +3509,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3512,7 +3527,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3530,7 +3545,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3548,7 +3563,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3566,7 +3581,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3584,7 +3599,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3602,7 +3617,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3620,7 +3635,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3638,7 +3653,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3656,7 +3671,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3674,7 +3689,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3692,7 +3707,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3710,7 +3725,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3728,7 +3743,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3746,7 +3761,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3764,7 +3779,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3782,7 +3797,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3800,7 +3815,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3818,7 +3833,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3836,7 +3851,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3854,7 +3869,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3872,7 +3887,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3890,7 +3905,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3908,7 +3923,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3926,7 +3941,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3944,7 +3959,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3962,7 +3977,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3980,7 +3995,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3998,7 +4013,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4016,7 +4031,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4034,7 +4049,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4052,7 +4067,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4070,7 +4085,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4088,7 +4103,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4106,7 +4121,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4124,7 +4139,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4142,7 +4157,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4159,20 +4174,38 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="41"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
+      <c r="A143" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="41"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="43"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
